--- a/Dépendance Fonctionnel.xlsx
+++ b/Dépendance Fonctionnel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>ID potion</t>
   </si>
@@ -88,15 +88,9 @@
     <t xml:space="preserve">Quantité récipient </t>
   </si>
   <si>
-    <t>Prix récipient</t>
-  </si>
-  <si>
     <t>ID commande</t>
   </si>
   <si>
-    <t xml:space="preserve">Potion </t>
-  </si>
-  <si>
     <t>Type récipient</t>
   </si>
   <si>
@@ -106,15 +100,9 @@
     <t>Prix totale</t>
   </si>
   <si>
-    <t>Onguent</t>
-  </si>
-  <si>
     <t>Quantité onguent</t>
   </si>
   <si>
-    <t>Ingrédient</t>
-  </si>
-  <si>
     <t>Fraicheur</t>
   </si>
   <si>
@@ -128,6 +116,33 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom Potion </t>
+  </si>
+  <si>
+    <t>Nom Onguent</t>
+  </si>
+  <si>
+    <t>Nom Ingrédient</t>
+  </si>
+  <si>
+    <t>ID Client</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>N° Commande</t>
+  </si>
+  <si>
+    <t>Prenom client</t>
+  </si>
+  <si>
+    <t>ID ingrédient (stock)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,11 +182,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,14 +212,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -197,10 +221,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,40 +547,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W80"/>
+  <dimension ref="B2:W87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5546875" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="8"/>
-    <col min="3" max="3" width="17" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="6"/>
+    <col min="3" max="3" width="17" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
         <v>16</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="9">
         <v>24</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="9">
         <v>28</v>
       </c>
-      <c r="H2" s="1">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="H2" s="9">
+        <v>41</v>
+      </c>
+      <c r="I2" s="9">
+        <v>54</v>
+      </c>
+      <c r="J2" s="9">
+        <v>58</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -556,21 +598,21 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -580,21 +622,21 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -604,21 +646,21 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -628,23 +670,23 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -654,23 +696,23 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -680,23 +722,23 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -706,23 +748,23 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -732,23 +774,23 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -758,23 +800,23 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -784,23 +826,23 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -810,23 +852,23 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -836,23 +878,23 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -862,23 +904,23 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -888,21 +930,21 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -912,21 +954,21 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -936,21 +978,21 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -960,21 +1002,21 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
+      <c r="B19" s="10">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -984,23 +1026,23 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+      <c r="B20" s="10">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1010,23 +1052,23 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
+      <c r="B21" s="10">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1036,23 +1078,23 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
+      <c r="B22" s="10">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1062,23 +1104,23 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
+      <c r="B23" s="10">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1088,23 +1130,23 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
+      <c r="B24" s="10">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1114,21 +1156,21 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7">
+      <c r="B25" s="10">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1138,21 +1180,21 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
+      <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1162,21 +1204,21 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7">
+      <c r="B27" s="10">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1186,21 +1228,21 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
+      <c r="B28" s="10">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1210,21 +1252,21 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="7">
+      <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1234,23 +1276,23 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
+      <c r="B30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="C30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1260,20 +1302,21 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7">
+      <c r="B31" s="10">
         <v>29</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1283,20 +1326,21 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="7">
+      <c r="B32" s="10">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1306,20 +1350,21 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7">
+      <c r="B33" s="10">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1329,21 +1374,21 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7">
+      <c r="B34" s="10">
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1353,21 +1398,21 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7">
+      <c r="B35" s="10">
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1377,21 +1422,23 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
+      <c r="B36" s="10">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="C36" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1401,21 +1448,21 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
+      <c r="B37" s="10">
         <v>35</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="C37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1425,23 +1472,21 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="7">
+      <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="C38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1451,21 +1496,21 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7">
+      <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="C39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -1475,21 +1520,21 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7">
+      <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="C40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -1499,23 +1544,21 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="7">
+      <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="C41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -1525,21 +1568,21 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="7">
+      <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="C42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -1552,20 +1595,18 @@
       <c r="B43" s="7">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -1575,23 +1616,23 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="7">
+      <c r="B44" s="10">
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="C44" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -1601,21 +1642,21 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="7">
+      <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="C45" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -1625,23 +1666,21 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7">
+      <c r="B46" s="10">
         <v>44</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -1651,21 +1690,23 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="7">
+      <c r="B47" s="10">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="C47" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -1675,21 +1716,21 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="7">
+      <c r="B48" s="10">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="C48" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -1699,21 +1740,23 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="6">
+      <c r="B49" s="10">
         <v>47</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
+      <c r="C49" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="1"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -1723,21 +1766,23 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="7">
+      <c r="B50" s="10">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1"/>
+      <c r="C50" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -1747,21 +1792,21 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="7">
+      <c r="B51" s="10">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="2">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1"/>
+      <c r="C51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -1771,21 +1816,23 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="7">
+      <c r="B52" s="10">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1"/>
+      <c r="C52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
+        <v>1</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1</v>
+      </c>
+      <c r="J52" s="9"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -1795,7 +1842,23 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J53" s="1"/>
+      <c r="B53" s="10">
+        <v>51</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9">
+        <v>1</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9">
+        <v>1</v>
+      </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -1805,15 +1868,23 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="B54" s="10">
+        <v>52</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9">
+        <v>1</v>
+      </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -1823,15 +1894,23 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="B55" s="10">
+        <v>53</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9">
+        <v>1</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9">
+        <v>1</v>
+      </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -1841,15 +1920,21 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="B56" s="7">
+        <v>54</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="9"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -1859,15 +1944,21 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="B57" s="10">
+        <v>55</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9">
+        <v>1</v>
+      </c>
+      <c r="J57" s="9"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -1877,15 +1968,21 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="B58" s="10">
+        <v>56</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9">
+        <v>1</v>
+      </c>
+      <c r="J58" s="9"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -1895,15 +1992,21 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="B59" s="10">
+        <v>57</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -1913,13 +2016,21 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="B60" s="7">
+        <v>58</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -1929,13 +2040,21 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="B61" s="10">
+        <v>59</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9">
+        <v>1</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -1945,13 +2064,21 @@
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="B62" s="10">
+        <v>60</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9">
+        <v>1</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -1961,13 +2088,21 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="B63" s="10">
+        <v>61</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9">
+        <v>1</v>
+      </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -1977,13 +2112,21 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="B64" s="10">
+        <v>62</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9">
+        <v>1</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -1992,10 +2135,12 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+    <row r="65" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2008,10 +2153,12 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+    <row r="66" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2024,7 +2171,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2040,7 +2187,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2056,7 +2203,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2072,7 +2219,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -2088,7 +2235,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -2104,7 +2251,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -2120,7 +2267,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2136,7 +2283,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -2152,7 +2299,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2168,7 +2315,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2184,7 +2331,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2200,7 +2347,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2216,7 +2363,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2232,7 +2379,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2248,6 +2395,118 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
+    <row r="81" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Dépendance Fonctionnel.xlsx
+++ b/Dépendance Fonctionnel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>ID potion</t>
   </si>
@@ -142,7 +142,7 @@
     <t>Prenom client</t>
   </si>
   <si>
-    <t>ID ingrédient (stock)</t>
+    <t>ID Stock</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5546875" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -575,13 +575,13 @@
         <v>28</v>
       </c>
       <c r="H2" s="9">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J2" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -633,8 +633,12 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="1"/>
@@ -810,9 +814,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -836,9 +838,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -862,9 +862,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -888,9 +886,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -914,9 +910,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1013,8 +1007,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="1"/>
@@ -1263,8 +1261,12 @@
       <c r="F29" s="9">
         <v>1</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="1"/>
@@ -1284,9 +1286,7 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
         <v>32</v>
       </c>
@@ -1308,13 +1308,16 @@
       <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
       <c r="G31" s="9">
         <v>1</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="1"/>
@@ -1338,7 +1341,9 @@
       <c r="G32" s="9">
         <v>1</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="1"/>
@@ -1362,7 +1367,9 @@
       <c r="G33" s="9">
         <v>1</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="1"/>
@@ -1378,7 +1385,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1402,7 +1409,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1410,8 +1417,12 @@
       <c r="G35" s="9">
         <v>1</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="9">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1</v>
+      </c>
       <c r="J35" s="9"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1426,18 +1437,20 @@
         <v>34</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1452,7 +1465,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1460,7 +1473,9 @@
       <c r="G37" s="9">
         <v>1</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="1"/>
@@ -1476,15 +1491,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <v>1</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="1"/>
@@ -1500,7 +1519,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1508,7 +1527,9 @@
       <c r="G39" s="9">
         <v>1</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="1"/>
@@ -1520,19 +1541,19 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10">
+      <c r="B40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>15</v>
+      <c r="C40" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="9">
-        <v>1</v>
-      </c>
-      <c r="H40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="1"/>
@@ -1547,16 +1568,18 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="9"/>
+      <c r="C41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
+        <v>1</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="1"/>
@@ -1571,17 +1594,19 @@
       <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>28</v>
+      <c r="C42" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1592,18 +1617,18 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7">
+      <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>24</v>
+      <c r="C43" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>32</v>
+      <c r="H43" s="9">
+        <v>1</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -1620,11 +1645,9 @@
         <v>42</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="9">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -1646,10 +1669,12 @@
         <v>43</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9">
@@ -1670,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1693,14 +1718,14 @@
       <c r="B47" s="10">
         <v>45</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>35</v>
+      <c r="C47" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <v>1</v>
@@ -1719,8 +1744,8 @@
       <c r="B48" s="10">
         <v>46</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>28</v>
+      <c r="C48" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1744,14 +1769,12 @@
         <v>47</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
+      <c r="G49" s="9"/>
       <c r="H49" s="9">
         <v>1</v>
       </c>
@@ -1770,19 +1793,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9">
-        <v>1</v>
-      </c>
+      <c r="G50" s="9"/>
       <c r="H50" s="9">
         <v>1</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="J50" s="9">
+        <v>1</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -1796,7 +1819,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -1806,7 +1829,9 @@
         <v>1</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="9">
+        <v>1</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -1819,8 +1844,8 @@
       <c r="B52" s="10">
         <v>50</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>25</v>
+      <c r="C52" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -1829,10 +1854,10 @@
       <c r="H52" s="9">
         <v>1</v>
       </c>
-      <c r="I52" s="9">
-        <v>1</v>
-      </c>
-      <c r="J52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9">
+        <v>1</v>
+      </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -1842,23 +1867,21 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10">
+      <c r="B53" s="7">
         <v>51</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>30</v>
+      <c r="C53" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9">
-        <v>1</v>
-      </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9">
-        <v>1</v>
-      </c>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="9"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -1872,19 +1895,21 @@
         <v>52</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
       <c r="H54" s="9">
         <v>1</v>
       </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9">
-        <v>1</v>
-      </c>
+      <c r="I54" s="9">
+        <v>1</v>
+      </c>
+      <c r="J54" s="9"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -1898,19 +1923,17 @@
         <v>53</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9">
-        <v>1</v>
-      </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9">
-        <v>1</v>
-      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+      <c r="J55" s="9"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -1920,19 +1943,19 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="7">
+      <c r="B56" s="10">
         <v>54</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>22</v>
+      <c r="C56" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="9" t="s">
-        <v>32</v>
+      <c r="I56" s="9">
+        <v>1</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="1"/>
@@ -1944,21 +1967,21 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10">
+      <c r="B57" s="7">
         <v>55</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>25</v>
+      <c r="C57" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="9">
-        <v>1</v>
-      </c>
-      <c r="J57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -1972,17 +1995,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9">
-        <v>1</v>
-      </c>
-      <c r="J58" s="9"/>
+      <c r="H58" s="9">
+        <v>1</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9">
+        <v>1</v>
+      </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -1996,17 +2021,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9">
-        <v>1</v>
-      </c>
-      <c r="J59" s="9"/>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9">
+        <v>1</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -2016,20 +2043,22 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="7">
+      <c r="B60" s="10">
         <v>58</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>37</v>
+      <c r="C60" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="H60" s="9">
+        <v>1</v>
+      </c>
       <c r="I60" s="13"/>
-      <c r="J60" s="9" t="s">
-        <v>32</v>
+      <c r="J60" s="9">
+        <v>1</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -2043,14 +2072,16 @@
       <c r="B61" s="10">
         <v>59</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>38</v>
+      <c r="C61" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="9">
+        <v>1</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9">
         <v>1</v>
@@ -2064,76 +2095,31 @@
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
-        <v>60</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9">
-        <v>1</v>
-      </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10">
-        <v>61</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10">
-        <v>62</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9">
-        <v>1</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>

--- a/Dépendance Fonctionnel.xlsx
+++ b/Dépendance Fonctionnel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>ID potion</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>ID Stock</t>
+  </si>
+  <si>
+    <t>ID fournisseur</t>
+  </si>
+  <si>
+    <t>Date envoi</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Date commande</t>
   </si>
 </sst>
 </file>
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -547,16 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W87"/>
+  <dimension ref="B2:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5546875" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5546875" style="6"/>
-    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -578,12 +589,14 @@
         <v>38</v>
       </c>
       <c r="I2" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="9">
-        <v>55</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K2" s="9">
+        <v>61</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -613,7 +626,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -641,7 +654,7 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -665,7 +678,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -691,7 +704,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -717,7 +730,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -743,7 +756,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -769,7 +782,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -795,7 +808,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -819,7 +832,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -843,7 +856,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -867,7 +880,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -891,7 +904,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -915,7 +928,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -939,7 +952,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -963,7 +976,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -987,7 +1000,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1015,7 +1028,7 @@
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1041,7 +1054,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1067,7 +1080,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1093,7 +1106,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1119,7 +1132,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1145,7 +1158,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1169,7 +1182,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1193,7 +1206,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1217,7 +1230,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1241,7 +1254,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1269,7 +1282,7 @@
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1293,7 +1306,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1308,6 +1321,7 @@
       <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9">
         <v>1</v>
@@ -1320,7 +1334,7 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1337,7 +1351,7 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="9">
         <v>1</v>
       </c>
@@ -1346,7 +1360,7 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1363,7 +1377,7 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="9">
         <v>1</v>
       </c>
@@ -1372,7 +1386,7 @@
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1396,7 +1410,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1424,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="9"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1452,7 +1466,7 @@
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1478,7 +1492,7 @@
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1506,7 +1520,7 @@
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -1532,7 +1546,7 @@
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -1556,7 +1570,7 @@
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -1582,7 +1596,7 @@
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -1608,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -1632,7 +1646,7 @@
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -1656,7 +1670,7 @@
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -1682,7 +1696,7 @@
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="9"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -1706,7 +1720,7 @@
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -1732,7 +1746,7 @@
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -1756,7 +1770,7 @@
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -1780,7 +1794,7 @@
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -1793,7 +1807,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -1803,10 +1817,8 @@
         <v>1</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="9">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -1819,7 +1831,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -1832,7 +1844,7 @@
       <c r="J51" s="9">
         <v>1</v>
       </c>
-      <c r="K51" s="1"/>
+      <c r="K51" s="9"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -1845,7 +1857,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -1858,7 +1870,7 @@
       <c r="J52" s="9">
         <v>1</v>
       </c>
-      <c r="K52" s="1"/>
+      <c r="K52" s="9"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -1867,22 +1879,24 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>51</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>22</v>
+      <c r="C53" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="1"/>
+      <c r="H53" s="9">
+        <v>1</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -1891,26 +1905,22 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10">
+      <c r="B54" s="7">
         <v>52</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>25</v>
+      <c r="C54" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9">
-        <v>1</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1</v>
-      </c>
-      <c r="I54" s="9">
-        <v>1</v>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -1923,18 +1933,22 @@
         <v>53</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1</v>
+      </c>
       <c r="I55" s="9">
         <v>1</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -1947,7 +1961,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -1958,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="9"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -1967,22 +1981,22 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="7">
+      <c r="B57" s="10">
         <v>55</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>37</v>
+      <c r="C57" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="1"/>
+      <c r="I57" s="9">
+        <v>1</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -1991,24 +2005,22 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="10">
+      <c r="B58" s="7">
         <v>56</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>38</v>
+      <c r="C58" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="9">
-        <v>1</v>
-      </c>
+      <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1"/>
+      <c r="J58" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="9"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -2021,7 +2033,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -2034,7 +2046,7 @@
       <c r="J59" s="9">
         <v>1</v>
       </c>
-      <c r="K59" s="1"/>
+      <c r="K59" s="9"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -2047,20 +2059,20 @@
         <v>58</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="9">
         <v>1</v>
       </c>
-      <c r="I60" s="13"/>
+      <c r="I60" s="9"/>
       <c r="J60" s="9">
         <v>1</v>
       </c>
-      <c r="K60" s="1"/>
+      <c r="K60" s="9"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -2073,7 +2085,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -2086,7 +2098,7 @@
       <c r="J61" s="9">
         <v>1</v>
       </c>
-      <c r="K61" s="1"/>
+      <c r="K61" s="9"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -2095,61 +2107,106 @@
       <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="10">
+        <v>60</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9">
+        <v>1</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9">
+        <v>1</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="B63" s="7">
+        <v>61</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="B64" s="10">
+        <v>62</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="B65" s="10">
+        <v>63</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="B66" s="10">
+        <v>64</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9">
+        <v>1</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -2158,9 +2215,11 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2493,6 +2552,22 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
+    <row r="88" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Dépendance Fonctionnel.xlsx
+++ b/Dépendance Fonctionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
   <si>
     <t>ID potion</t>
   </si>
@@ -25,51 +25,18 @@
     <t>Prix</t>
   </si>
   <si>
-    <t>Ingrédient 1</t>
-  </si>
-  <si>
-    <t>Ingrédient 2</t>
-  </si>
-  <si>
-    <t>Ingrédient 3</t>
-  </si>
-  <si>
-    <t>Ingrédient 4</t>
-  </si>
-  <si>
-    <t>Ingrédient 5</t>
-  </si>
-  <si>
     <t>Diluant</t>
   </si>
   <si>
     <t>Inventeur</t>
   </si>
   <si>
-    <t>Fraicheur 1</t>
-  </si>
-  <si>
-    <t>Fraicheur 2</t>
-  </si>
-  <si>
-    <t>Fraicheur 3</t>
-  </si>
-  <si>
-    <t>Fraicheur 4</t>
-  </si>
-  <si>
-    <t>Fraicheur 5</t>
-  </si>
-  <si>
     <t>ID onguent</t>
   </si>
   <si>
     <t>Nom onguent</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingrédient 2 </t>
-  </si>
-  <si>
     <t>ID ingrédient</t>
   </si>
   <si>
@@ -155,12 +122,15 @@
   </si>
   <si>
     <t>Date commande</t>
+  </si>
+  <si>
+    <t>Température</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +223,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,6 +321,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -382,6 +373,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,19 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W88"/>
+  <dimension ref="B2:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5546875" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5703125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="6"/>
-    <col min="3" max="3" width="19.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="6"/>
+    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="9">
@@ -602,15 +611,34 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9">
+        <v>1</v>
+      </c>
+      <c r="T2" s="9">
+        <v>7</v>
+      </c>
+      <c r="U2" s="9">
+        <v>10</v>
+      </c>
+      <c r="V2" s="9">
+        <v>14</v>
+      </c>
+      <c r="W2" s="9">
+        <v>24</v>
+      </c>
+      <c r="X2" s="14">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -618,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -632,9 +660,24 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+    </row>
+    <row r="4" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2</v>
       </c>
@@ -660,9 +703,28 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="9">
+        <v>2</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15">
+        <v>1</v>
+      </c>
+      <c r="W4" s="15">
+        <v>1</v>
+      </c>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -684,11 +746,26 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="9">
+        <v>3</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>3</v>
@@ -697,9 +774,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -710,11 +785,26 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="9">
+        <v>4</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>4</v>
@@ -723,9 +813,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -736,22 +824,29 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="Q7" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
+      <c r="R7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="15">
+        <v>1</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -762,22 +857,35 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="Q8" s="9">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
+      <c r="R8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="15">
+        <v>1</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -788,24 +896,41 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="9">
+        <v>7</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -814,19 +939,38 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="9">
+        <v>8</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15">
+        <v>1</v>
+      </c>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15">
+        <v>1</v>
+      </c>
+      <c r="W10" s="15">
+        <v>1</v>
+      </c>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+    </row>
+    <row r="11" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -838,20 +982,35 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="9">
+        <v>9</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15">
+        <v>1</v>
+      </c>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -862,20 +1021,35 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="9">
+        <v>10</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -886,20 +1060,35 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="9">
+        <v>11</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15">
+        <v>1</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -910,22 +1099,41 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="9">
+        <v>12</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15">
+        <v>1</v>
+      </c>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -934,21 +1142,40 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="2:23" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="9">
+        <v>13</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="15">
+        <v>1</v>
+      </c>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -958,22 +1185,41 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="9">
+        <v>14</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -982,22 +1228,43 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="Q17" s="9">
         <v>15</v>
       </c>
+      <c r="R17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15">
+        <v>1</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1</v>
+      </c>
+      <c r="W17" s="15">
+        <v>1</v>
+      </c>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+    </row>
+    <row r="18" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>30</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1006,19 +1273,34 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="9">
+        <v>16</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15">
+        <v>1</v>
+      </c>
+      <c r="W18" s="15">
+        <v>1</v>
+      </c>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9">
         <v>1</v>
@@ -1034,23 +1316,38 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="9">
+        <v>17</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15">
+        <v>1</v>
+      </c>
+      <c r="W19" s="15">
+        <v>1</v>
+      </c>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+    </row>
+    <row r="20" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
-        <v>18</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1060,25 +1357,42 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="9">
+        <v>18</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15">
+        <v>1</v>
+      </c>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+    </row>
+    <row r="21" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
-        <v>19</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="1"/>
@@ -1086,24 +1400,45 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="9">
+        <v>19</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15">
+        <v>1</v>
+      </c>
+      <c r="W21" s="15">
+        <v>1</v>
+      </c>
+      <c r="X21" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
-        <v>20</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1112,24 +1447,43 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="9">
+        <v>20</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="15">
+        <v>1</v>
+      </c>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15">
+        <v>1</v>
+      </c>
+      <c r="W22" s="15">
+        <v>1</v>
+      </c>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+    </row>
+    <row r="23" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
-        <v>21</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1138,24 +1492,43 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="9">
+        <v>21</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15">
+        <v>1</v>
+      </c>
+      <c r="W23" s="15">
+        <v>1</v>
+      </c>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+    </row>
+    <row r="24" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
-        <v>22</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9">
         <v>1</v>
       </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1164,22 +1537,43 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="9">
+        <v>22</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15">
+        <v>1</v>
+      </c>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15">
+        <v>1</v>
+      </c>
+      <c r="W24" s="15">
+        <v>1</v>
+      </c>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+    </row>
+    <row r="25" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
-        <v>23</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1188,22 +1582,39 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="9">
+        <v>23</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15">
+        <v>1</v>
+      </c>
+      <c r="W25" s="15">
+        <v>1</v>
+      </c>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+    </row>
+    <row r="26" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1212,22 +1623,39 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="9">
+        <v>24</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+    </row>
+    <row r="27" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1236,23 +1664,42 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="9">
+        <v>25</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="15">
+        <v>1</v>
+      </c>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15">
+        <v>1</v>
+      </c>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="1"/>
@@ -1260,23 +1707,36 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="9">
+        <v>26</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15">
+        <v>1</v>
+      </c>
+      <c r="X28" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+    <row r="29" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9">
-        <v>1</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="9">
         <v>1</v>
       </c>
@@ -1288,22 +1748,37 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7">
-        <v>28</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="Q29" s="9">
+        <v>27</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15">
+        <v>1</v>
+      </c>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+    </row>
+    <row r="30" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
         <v>42</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1312,23 +1787,36 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="9">
+        <v>28</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15">
+        <v>1</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+    </row>
+    <row r="31" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
       <c r="H31" s="9">
         <v>1</v>
       </c>
@@ -1340,21 +1828,36 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="9">
+        <v>29</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15">
+        <v>1</v>
+      </c>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15">
+        <v>1</v>
+      </c>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+    </row>
+    <row r="32" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
+      <c r="G32" s="9"/>
       <c r="H32" s="9">
         <v>1</v>
       </c>
@@ -1366,21 +1869,36 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q32" s="9">
+        <v>30</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15">
+        <v>1</v>
+      </c>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+    </row>
+    <row r="33" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
-        <v>31</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9"/>
       <c r="H33" s="9">
         <v>1</v>
       </c>
@@ -1392,22 +1910,39 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q33" s="9">
+        <v>31</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15">
+        <v>1</v>
+      </c>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15">
+        <v>1</v>
+      </c>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -1416,27 +1951,38 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="9">
+        <v>32</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15">
+        <v>1</v>
+      </c>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+    </row>
+    <row r="35" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
+      <c r="G35" s="9"/>
       <c r="H35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="9">
-        <v>1</v>
-      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="1"/>
@@ -1444,23 +1990,34 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q35" s="9">
+        <v>33</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15">
+        <v>1</v>
+      </c>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+    </row>
+    <row r="36" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9">
-        <v>1</v>
-      </c>
+      <c r="G36" s="9"/>
       <c r="H36" s="9">
         <v>1</v>
       </c>
@@ -1472,103 +2029,167 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q36" s="9">
+        <v>34</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15">
+        <v>1</v>
+      </c>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+    </row>
+    <row r="37" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9">
-        <v>1</v>
-      </c>
+      <c r="G37" s="9"/>
       <c r="H37" s="9">
         <v>1</v>
       </c>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
       <c r="K37" s="9"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q37" s="9">
+        <v>35</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15">
+        <v>1</v>
+      </c>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="15"/>
+    </row>
+    <row r="38" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9">
-        <v>1</v>
-      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
+      <c r="G38" s="9"/>
       <c r="H38" s="9">
         <v>1</v>
       </c>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
       <c r="K38" s="9"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q38" s="9">
+        <v>36</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15">
+        <v>1</v>
+      </c>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="15"/>
+    </row>
+    <row r="39" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
+      <c r="G39" s="9"/>
       <c r="H39" s="9">
         <v>1</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="J39" s="9">
+        <v>1</v>
+      </c>
       <c r="K39" s="9"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q39" s="9">
+        <v>37</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15">
+        <v>1</v>
+      </c>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="15"/>
+    </row>
+    <row r="40" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>38</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="1"/>
@@ -1576,25 +2197,42 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="9">
+        <v>38</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+    </row>
+    <row r="41" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
-        <v>39</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
       <c r="H41" s="9">
         <v>1</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="I41" s="9">
+        <v>1</v>
+      </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="1"/>
@@ -1602,22 +2240,39 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q41" s="9">
+        <v>39</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15">
+        <v>1</v>
+      </c>
+      <c r="W41" s="15">
+        <v>1</v>
+      </c>
+      <c r="X41" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+    </row>
+    <row r="42" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
-        <v>40</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="9">
-        <v>1</v>
-      </c>
+      <c r="H42" s="9"/>
       <c r="I42" s="9">
         <v>1</v>
       </c>
@@ -1628,23 +2283,38 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q42" s="9">
+        <v>40</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+    </row>
+    <row r="43" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
-        <v>41</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9">
-        <v>1</v>
-      </c>
-      <c r="I43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9">
+        <v>1</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="1"/>
@@ -1652,63 +2322,110 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10">
-        <v>42</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>27</v>
+      <c r="Q43" s="9">
+        <v>41</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+    </row>
+    <row r="44" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>56</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9">
-        <v>1</v>
-      </c>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="K44" s="9"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q44" s="9">
+        <v>42</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z44" s="15"/>
+    </row>
+    <row r="45" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
-        <v>43</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>1</v>
-      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9">
         <v>1</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="9">
+        <v>1</v>
+      </c>
       <c r="K45" s="9"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q45" s="9">
+        <v>43</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15">
+        <v>1</v>
+      </c>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="15"/>
+    </row>
+    <row r="46" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
-        <v>44</v>
-      </c>
-      <c r="C46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="9"/>
@@ -1719,47 +2436,83 @@
         <v>1</v>
       </c>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="9">
+        <v>1</v>
+      </c>
       <c r="K46" s="9"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q46" s="9">
+        <v>44</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15">
+        <v>1</v>
+      </c>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="15"/>
+    </row>
+    <row r="47" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="9">
-        <v>1</v>
-      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9">
         <v>1</v>
       </c>
       <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="J47" s="9">
+        <v>1</v>
+      </c>
       <c r="K47" s="9"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q47" s="9">
+        <v>45</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15">
+        <v>1</v>
+      </c>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="15"/>
+    </row>
+    <row r="48" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -1769,134 +2522,194 @@
         <v>1</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="J48" s="9">
+        <v>1</v>
+      </c>
       <c r="K48" s="9"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10">
-        <v>47</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>29</v>
+      <c r="Q48" s="9">
+        <v>46</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15">
+        <v>1</v>
+      </c>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="15"/>
+    </row>
+    <row r="49" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>61</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9">
-        <v>1</v>
-      </c>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>47</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9">
-        <v>1</v>
-      </c>
+      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="9">
+        <v>48</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9">
-        <v>1</v>
-      </c>
+      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9">
-        <v>1</v>
-      </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="9">
+        <v>49</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9">
-        <v>1</v>
-      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9">
-        <v>1</v>
-      </c>
-      <c r="K52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9">
+        <v>1</v>
+      </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10">
-        <v>51</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9">
-        <v>1</v>
-      </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9">
-        <v>1</v>
-      </c>
-      <c r="K53" s="9"/>
+      <c r="Q52" s="9">
+        <v>50</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15">
+        <v>1</v>
+      </c>
+      <c r="V52" s="15">
+        <v>1</v>
+      </c>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -1904,23 +2717,15 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="7">
-        <v>52</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+    <row r="54" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -1928,27 +2733,15 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10">
-        <v>53</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9">
-        <v>1</v>
-      </c>
-      <c r="H55" s="9">
-        <v>1</v>
-      </c>
-      <c r="I55" s="9">
-        <v>1</v>
-      </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+    <row r="55" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -1956,23 +2749,15 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10">
-        <v>54</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9">
-        <v>1</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+    <row r="56" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -1980,23 +2765,15 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10">
-        <v>55</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9">
-        <v>1</v>
-      </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+    <row r="57" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -2004,23 +2781,15 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="7">
-        <v>56</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="9"/>
+    <row r="58" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -2028,25 +2797,15 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="10">
-        <v>57</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9">
-        <v>1</v>
-      </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9">
-        <v>1</v>
-      </c>
-      <c r="K59" s="9"/>
+    <row r="59" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -2054,25 +2813,15 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="10">
-        <v>58</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9">
-        <v>1</v>
-      </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9">
-        <v>1</v>
-      </c>
-      <c r="K60" s="9"/>
+    <row r="60" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -2080,25 +2829,15 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="10">
-        <v>59</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9">
-        <v>1</v>
-      </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9">
-        <v>1</v>
-      </c>
-      <c r="K61" s="9"/>
+    <row r="61" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -2106,25 +2845,15 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
-        <v>60</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9">
-        <v>1</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9">
-        <v>1</v>
-      </c>
-      <c r="K62" s="9"/>
+    <row r="62" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -2132,81 +2861,63 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="7">
-        <v>61</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10">
-        <v>62</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10">
-        <v>63</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="10">
-        <v>64</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9">
-        <v>1</v>
-      </c>
-      <c r="G66" s="9">
-        <v>1</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9">
-        <v>1</v>
-      </c>
+    <row r="63" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="2:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -2214,12 +2925,10 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+    <row r="67" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2232,7 +2941,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2248,7 +2957,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2264,7 +2973,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -2280,7 +2989,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -2296,7 +3005,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -2312,7 +3021,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2328,7 +3037,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -2344,230 +3053,6 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-    </row>
-    <row r="78" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="2:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="4:17" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Dépendance Fonctionnel.xlsx
+++ b/Dépendance Fonctionnel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="27840" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +227,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49:R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5703125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -613,28 +620,28 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="9">
-        <v>1</v>
-      </c>
-      <c r="T2" s="9">
+      <c r="S2" s="18">
+        <v>1</v>
+      </c>
+      <c r="T2" s="18">
         <v>7</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="18">
         <v>10</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="18">
         <v>14</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="18">
         <v>24</v>
       </c>
-      <c r="X2" s="14">
+      <c r="X2" s="18">
         <v>38</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="18">
         <v>42</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="18">
         <v>47</v>
       </c>
     </row>
@@ -660,10 +667,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="9">
-        <v>1</v>
-      </c>
-      <c r="R3" s="14" t="s">
+      <c r="Q3" s="16">
+        <v>1</v>
+      </c>
+      <c r="R3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="S3" s="15" t="s">
@@ -896,10 +903,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="9">
+      <c r="Q9" s="16">
         <v>7</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="15"/>
@@ -1021,10 +1028,10 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="9">
+      <c r="Q12" s="16">
         <v>10</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="17" t="s">
         <v>7</v>
       </c>
       <c r="S12" s="15"/>
@@ -1623,10 +1630,10 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="9">
+      <c r="Q26" s="16">
         <v>24</v>
       </c>
-      <c r="R26" s="14" t="s">
+      <c r="R26" s="17" t="s">
         <v>13</v>
       </c>
       <c r="S26" s="15"/>
@@ -2197,10 +2204,10 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="9">
+      <c r="Q40" s="16">
         <v>38</v>
       </c>
-      <c r="R40" s="14" t="s">
+      <c r="R40" s="17" t="s">
         <v>11</v>
       </c>
       <c r="S40" s="15"/>
@@ -2361,10 +2368,10 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="9">
+      <c r="Q44" s="16">
         <v>42</v>
       </c>
-      <c r="R44" s="14" t="s">
+      <c r="R44" s="17" t="s">
         <v>26</v>
       </c>
       <c r="S44" s="15"/>
@@ -2567,10 +2574,10 @@
       <c r="K49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="16">
         <v>47</v>
       </c>
-      <c r="R49" s="14" t="s">
+      <c r="R49" s="17" t="s">
         <v>32</v>
       </c>
       <c r="S49" s="15"/>
